--- a/UTS/BANI MASKUR MUHAMMAD AL-WALAD - 201011401873 - UTS SPK.xlsx
+++ b/UTS/BANI MASKUR MUHAMMAD AL-WALAD - 201011401873 - UTS SPK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andri\Documents\UNPAM-File\bantuin\bani\spk\uts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andri\Documents\UNPAM-File\bantuin\bani\spk\UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE643D2-B2A8-46AB-B045-54644116E4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30DB826A-CB6A-47F7-9F2F-B0AC2BEF3EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{68E6060E-666C-4768-A0FD-7F510B0E59CE}"/>
   </bookViews>
